--- a/biology/Zoologie/Gustave_(crocodile)/Gustave_(crocodile).xlsx
+++ b/biology/Zoologie/Gustave_(crocodile)/Gustave_(crocodile).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gustave est le nom donné à un célèbre crocodile du Nil ayant vécu au Burundi et qui a tué de très nombreuses personnes à partir des années 1990. Sa taille était estimée à l'époque à plus de six mètres, voire sept mètres.
-Le nom de Gustave lui a été attribué par Patrice Faye, un dramaturge, écrivain, comédien et résident français au Burundi, fondateur d’écoles et d’orphelinats, et naturaliste autodidacte. En 2002, Faye et une équipe de journalistes tentent de capturer la bête à l’aide d’un énorme piège disposé sur les berges. Cependant, les conditions de travail sont loin d’être idéales et la météo capricieuse. L'entreprise échoue. L’expédition a donné lieu à un documentaire intitulé Le monstre du Tanganyika diffusé en 2004[1].
+Le nom de Gustave lui a été attribué par Patrice Faye, un dramaturge, écrivain, comédien et résident français au Burundi, fondateur d’écoles et d’orphelinats, et naturaliste autodidacte. En 2002, Faye et une équipe de journalistes tentent de capturer la bête à l’aide d’un énorme piège disposé sur les berges. Cependant, les conditions de travail sont loin d’être idéales et la météo capricieuse. L'entreprise échoue. L’expédition a donné lieu à un documentaire intitulé Le monstre du Tanganyika diffusé en 2004.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Une réputation de mangeur d'hommes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gustave est réputé pour avoir intégré la chair humaine dans son régime alimentaire habituel. Il aurait fait plus de 300 victimes le long de la rivière Rusizi ainsi que sur les rives du nord du lac Tanganyika. Bien que le nombre de morts à son actif soit probablement exagéré (les disparitions humaines lui étant quasi-systématiquement attribuées), Gustave a atteint un statut de mangeur d’homme proche du mythe vivant et est particulièrement craint par les populations vivant dans la région. Il porte sur son corps de nombreuses cicatrices par balles.
 Fait exceptionnel, il est connu pour avoir tué et dévoré un hippopotame adulte, chose hors de portée d’un crocodile de plus petite taille.
@@ -546,7 +560,9 @@
           <t>Cinéma</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le film Primeval, réalisé par Michael Katleman en 2007.</t>
         </is>
